--- a/biology/Médecine/Pathologie_liée_à_la_chaleur/Pathologie_liée_à_la_chaleur.xlsx
+++ b/biology/Médecine/Pathologie_liée_à_la_chaleur/Pathologie_liée_à_la_chaleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+          <t>Pathologie_liée_à_la_chaleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'Humain, les pathologies liées à la chaleur sont tous les troubles qui apparaissent quand les capacités d'adaptation du corps et de la psyché à la chaleur environnementale sont dépassées ; allant de troubles mineurs (comme la dermite à la chaleur) à mortels (coup de chaleur avec hyperthermie corporelle supérieure à 40 °C).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+          <t>Pathologie_liée_à_la_chaleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,110 +523,91 @@
           <t>Adaptation à la chaleur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En conditions de confort thermique, la chaleur du corps humain est évacuée passivement, dans le milieu extérieur : le bilan des transferts de chaleur est négatif (on perd plus de chaleur qu'on en gagne).
-Confort thermique
-La notion de « confort thermique » varie  selon l'acclimatation corporelle individuelle, et les modes de vie collective. 
-Il existe une « culture traditionnelle de la chaleur » dans les régions ou pays chauds, qui s'adaptent en conséquence. En Andalousie ou au Texas, une surmortalité liée à la chaleur apparait à partir de 40 à 41 °C, alors qu'elle débute dès 27 à 28 °C en Belgique[1].
-Chez le sujet jeune, toute augmentation de la température centrale ou cutanée de plus de 0,5 °C stimule des récepteurs à la chaleur (peau et système nerveux central) qui déclenchent une réaction générale de défense de l'organisme, ainsi que le besoin d'adapter son comportement[1]. Certaines pathologies ou certains cas de trouble du spectre autistique (TSA) sont associés à une moindre capacité à ressentir la chaleur ;
-Chez le sujet très âgés, il faut souvent une hausse de plus de 3 °C de température cutanée pour déclencher cette réaction. Ces personnes ne ressentent pas, ou moins, le besoin de se protéger de la chaleur[1].
-Vasodilatation
-Quand la température extérieure croît (exposition prolongée à la chaleur), le débit sanguin cutané augmente (vasodilatation périphérique augmentant la déperdition passive de calories), avec trois effets principaux[2]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Adaptation à la chaleur</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Confort thermique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La notion de « confort thermique » varie  selon l'acclimatation corporelle individuelle, et les modes de vie collective. 
+Il existe une « culture traditionnelle de la chaleur » dans les régions ou pays chauds, qui s'adaptent en conséquence. En Andalousie ou au Texas, une surmortalité liée à la chaleur apparait à partir de 40 à 41 °C, alors qu'elle débute dès 27 à 28 °C en Belgique.
+Chez le sujet jeune, toute augmentation de la température centrale ou cutanée de plus de 0,5 °C stimule des récepteurs à la chaleur (peau et système nerveux central) qui déclenchent une réaction générale de défense de l'organisme, ainsi que le besoin d'adapter son comportement. Certaines pathologies ou certains cas de trouble du spectre autistique (TSA) sont associés à une moindre capacité à ressentir la chaleur ;
+Chez le sujet très âgés, il faut souvent une hausse de plus de 3 °C de température cutanée pour déclencher cette réaction. Ces personnes ne ressentent pas, ou moins, le besoin de se protéger de la chaleur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Adaptation à la chaleur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vasodilatation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand la température extérieure croît (exposition prolongée à la chaleur), le débit sanguin cutané augmente (vasodilatation périphérique augmentant la déperdition passive de calories), avec trois effets principaux:
 Augmentation des transferts de chaleur entre le noyau central de l'organisme et la surface cutanée ;
 Augmentation de la température de la peau ;
 Augmentation de la production de sueur, l'évaporation sudorale étant le seul moyen, à ce moment, de perdre de la chaleur.
 Une personne exposée à la chaleur s'adapte d'autant mieux qu'elle dispose d'un bon système cardiovasculaire, capable d'adapter son débit cardiaque à l'augmentation du débit sanguin cutané et à la diminution du volume plasmatique liée aux pertes sudorales.
-Sudation
-À partir de 26 à 28 °C de température extérieure, l'évaporation de la sueur devient le seul moyen quasi-exclusif de refroidissement. Le passage de l'état liquide à l'état gazeux du sérum extrait par les glandes sudoripares est un processus très puissant : l'évaporation de 125 cl de sérum refroidit le corps de 1 °C, et la sudation peut atteindre 1 litre par heure pendant 12 heures. Une transpiration qui ruisselle est peu efficace (perte liquidienne sans évaporation)[3].
-Une sudation efficace nécessite des glandes sudoripares en nombre suffisant (différences génétiques) et de bonne qualité (différences selon l'âge), des réserves liquidiennes suffisantes et renouvelées, et des alternances de repos (comme dans tout processus physiologique). Lorsque la température nocturne ne baisse pas en dessous de 25 °C, voire 23 °C, il est plus difficile à l'organisme de se reposer, et la mortalité peut augmenter chez les plus fragiles.
-Une personne exposée à la chaleur doit donc être capable de produire de la sueur, en étant suffisamment hydratée, en étant en contact avec un air aussi sec que possible pour faciliter l'évaporation sudorale. À défaut, ce processus peut être remplacé par un brumisateur (humidifiant la peau) et un ventilateur (qui refroidit en favorisant l'évaporation : ventilation et air asséché par brassage).
-L'adaptation de l'organisme, par exposition prolongée à la chaleur, demande du temps, au moins neuf heures pour se constituer et une semaine pour être pleinement efficace[2],[4].
-Quand la température ambiante dépasse 37 °C, le bilan des transferts de chaleur entre le corps et son environnement devient positif.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Personnes à risques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les risques liés à la chaleur sont plus élevés en cas de pollution atmosphérique, alors que les études sur les rapports température et mortalité  selon le degré hygrométrique restent contradictoires[5].
-Selon l'âge
-Les nourrissons et les enfants de moins de 4 ans sont plus sensibles, car leur réserve liquidienne est insuffisante et ils se déshydratent facilement. Toutefois les mères le savent, et font boire leur enfant dès qu'il est rouge, grognon, en laissant une couche sèche au réveil. Lors de la canicule de 2003, aucune surmortalité n'a été constatée chez les nourrissons[3],[6].
-Les personnes âgées, les sujets atteints de pathologies particulières nécessitant des médicaments, et les personnes isolées ou mal informées sont plus à risques de souffrir des vagues de chaleur.
-Chez les personnes âgées, la principale raison est la fragilité de leur appareil sudoral, surtout lorsque les nuits restent chaudes (les glandes sudoripares ne peuvent se reposer). Leur surmortalité en période de canicule est attribuée en partie à cette méconnaissance, par confusion avec les gestes efficaces avec les tout-petits. Faire boire devient inutile si la personne ne transpire pas ou peu. Il vaut mieux la vaporiser et la ventiler, ou la placer en zone climatisée[3].
-Comorbidités
-En France, les risques majeurs sont le grand âge et la perte d'autonomie (incapacité à adapter son comportement à la chaleur) ; les maladies neurologiques (Parkinson, Alzheimer...) ; les maladies cardiovasculaires et séquelles d'AVC ; obésité ou dénutrition ; habitat mal adapté (logement au dernier étage, absence d'endroit frais ou climatisé accessible).
-Les personnes souffrant de troubles mentaux ou consommant des psychotropes ont un risque relatif de décès majoré de 30 à 200 % lors des vagues de chaleur[7]. Cet excès de risque serait d'ordre physiologique dans la schizophrénie et la dépression, ou d'une prise de conscience insuffisante du danger lié à la chaleur.
-Les médicaments (psychotropes, diurétiques...) et leurs interactions, ainsi que la consommation d'alcool ou de drogues aggrave les risques.
-Les maladies les plus à risque de se déstabiliser à la chaleur (ou de favoriser une pathologie liée à la chaleur) sont les maladies cardiovasculaires ; endocriniennes (diabète, hyperthyroïdie...) ; rénales et urinaires ; enfants atteints de mucoviscidose, de drépanocytose[8].
-Lors des périodes de canicule, les femmes enceintes sont plus à risque d'accouchement prématuré, d'enfants de petit poids de naissance avec malformations cardiaques[5].
-Statut socio-économique
-Les habitants des grandes villes sont plus exposés que les autres (effet absorbant des murs qui diffusent la chaleur la nuit, pollution atmosphérique avec effet de serre local, sources supplémentaires de chaleur par activités humaines)[1].
-Les populations de bas niveau socio-économique, les communautés marginalisées, et les minorités raciales ou ethniques sont plus à risques de souffrir de maladies liées à la chaleur. Il ne s'agit pas seulement d'un accès économique à la climatisation, mais d'un ensemble complexe de facteurs socio-culturels et historiques, comme le racisme structurel aux États-Unis. Par exemple la pratique américaine du redlining dans les années 1930 a abouti à la création de zones urbaines appauvries dépourvues d'espaces verts, où la température est supérieure de 5° C à celle des zones plus saines[5].
-Ces populations ont moins d'accès aux soins, sont plus fréquemment employées en travaux d'extérieur, ou en lieux non climatisés, avec une plus forte incidence d'hypertension, de diabète et de maladies rénales[5].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pathologies mineures</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur une échelle de 4 (niveaux de gravité selon l'INVS), ces pathologies sont de niveau 1 et 2.
-Les premiers signes d'exposition à la chaleur sont des sensations d'inconfort et de fatigue anormale.
-Dermite de chaleur
-Il s'agit d'une éruption cutanée rouge et très irritante. Cette dermite est faite de macules et de papules. Elle siège sur les parties couvertes par les habits, par phénomène de macération lié à la sueur. Elle est plus fréquente chez les enfants, et chez les adultes sportifs portant des tissus synthétiques[9].
-Œdème des extrémités
-La chaleur provoque une vasodilatation périphérique, avec gêne au retour veineux. Cet œdème par chaleur siège aux extrémités des membres inférieurs. Il touche surtout les sujets ayant des troubles vasculaires (hypertension, diabète, insuffisance veineuse...), personnes âgées (plus souvent féminines), personnes sédentaires[9]...
-Crampes de chaleur
-Ce sont des troubles de niveau 2. Il s'agit de spasmes musculaires douloureux accompagnés de transpiration intense. Ils sont favorisés par l'effort musculaire (compétition sportive, lutte contre l'incendie, travail de force...), et surviennent typiquement lors de l'arrêt de l'activité musculaire[9].
-Ces crampes touchent les muscles des membres ou les muscles abdominaux. Elles sont dues à une déshydratation avec déséquilibre en électrolytes (répartition des ions sodium, potassium, magnésium, calcium).
 </t>
         </is>
       </c>
@@ -625,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+          <t>Pathologie_liée_à_la_chaleur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,88 +633,433 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Adaptation à la chaleur</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sudation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de 26 à 28 °C de température extérieure, l'évaporation de la sueur devient le seul moyen quasi-exclusif de refroidissement. Le passage de l'état liquide à l'état gazeux du sérum extrait par les glandes sudoripares est un processus très puissant : l'évaporation de 125 cl de sérum refroidit le corps de 1 °C, et la sudation peut atteindre 1 litre par heure pendant 12 heures. Une transpiration qui ruisselle est peu efficace (perte liquidienne sans évaporation).
+Une sudation efficace nécessite des glandes sudoripares en nombre suffisant (différences génétiques) et de bonne qualité (différences selon l'âge), des réserves liquidiennes suffisantes et renouvelées, et des alternances de repos (comme dans tout processus physiologique). Lorsque la température nocturne ne baisse pas en dessous de 25 °C, voire 23 °C, il est plus difficile à l'organisme de se reposer, et la mortalité peut augmenter chez les plus fragiles.
+Une personne exposée à la chaleur doit donc être capable de produire de la sueur, en étant suffisamment hydratée, en étant en contact avec un air aussi sec que possible pour faciliter l'évaporation sudorale. À défaut, ce processus peut être remplacé par un brumisateur (humidifiant la peau) et un ventilateur (qui refroidit en favorisant l'évaporation : ventilation et air asséché par brassage).
+L'adaptation de l'organisme, par exposition prolongée à la chaleur, demande du temps, au moins neuf heures pour se constituer et une semaine pour être pleinement efficace,.
+Quand la température ambiante dépasse 37 °C, le bilan des transferts de chaleur entre le corps et son environnement devient positif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnes à risques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les risques liés à la chaleur sont plus élevés en cas de pollution atmosphérique, alors que les études sur les rapports température et mortalité  selon le degré hygrométrique restent contradictoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnes à risques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon l'âge</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nourrissons et les enfants de moins de 4 ans sont plus sensibles, car leur réserve liquidienne est insuffisante et ils se déshydratent facilement. Toutefois les mères le savent, et font boire leur enfant dès qu'il est rouge, grognon, en laissant une couche sèche au réveil. Lors de la canicule de 2003, aucune surmortalité n'a été constatée chez les nourrissons,.
+Les personnes âgées, les sujets atteints de pathologies particulières nécessitant des médicaments, et les personnes isolées ou mal informées sont plus à risques de souffrir des vagues de chaleur.
+Chez les personnes âgées, la principale raison est la fragilité de leur appareil sudoral, surtout lorsque les nuits restent chaudes (les glandes sudoripares ne peuvent se reposer). Leur surmortalité en période de canicule est attribuée en partie à cette méconnaissance, par confusion avec les gestes efficaces avec les tout-petits. Faire boire devient inutile si la personne ne transpire pas ou peu. Il vaut mieux la vaporiser et la ventiler, ou la placer en zone climatisée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Personnes à risques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Comorbidités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les risques majeurs sont le grand âge et la perte d'autonomie (incapacité à adapter son comportement à la chaleur) ; les maladies neurologiques (Parkinson, Alzheimer...) ; les maladies cardiovasculaires et séquelles d'AVC ; obésité ou dénutrition ; habitat mal adapté (logement au dernier étage, absence d'endroit frais ou climatisé accessible).
+Les personnes souffrant de troubles mentaux ou consommant des psychotropes ont un risque relatif de décès majoré de 30 à 200 % lors des vagues de chaleur. Cet excès de risque serait d'ordre physiologique dans la schizophrénie et la dépression, ou d'une prise de conscience insuffisante du danger lié à la chaleur.
+Les médicaments (psychotropes, diurétiques...) et leurs interactions, ainsi que la consommation d'alcool ou de drogues aggrave les risques.
+Les maladies les plus à risque de se déstabiliser à la chaleur (ou de favoriser une pathologie liée à la chaleur) sont les maladies cardiovasculaires ; endocriniennes (diabète, hyperthyroïdie...) ; rénales et urinaires ; enfants atteints de mucoviscidose, de drépanocytose.
+Lors des périodes de canicule, les femmes enceintes sont plus à risque d'accouchement prématuré, d'enfants de petit poids de naissance avec malformations cardiaques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Personnes à risques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Statut socio-économique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitants des grandes villes sont plus exposés que les autres (effet absorbant des murs qui diffusent la chaleur la nuit, pollution atmosphérique avec effet de serre local, sources supplémentaires de chaleur par activités humaines).
+Les populations de bas niveau socio-économique, les communautés marginalisées, et les minorités raciales ou ethniques sont plus à risques de souffrir de maladies liées à la chaleur. Il ne s'agit pas seulement d'un accès économique à la climatisation, mais d'un ensemble complexe de facteurs socio-culturels et historiques, comme le racisme structurel aux États-Unis. Par exemple la pratique américaine du redlining dans les années 1930 a abouti à la création de zones urbaines appauvries dépourvues d'espaces verts, où la température est supérieure de 5° C à celle des zones plus saines.
+Ces populations ont moins d'accès aux soins, sont plus fréquemment employées en travaux d'extérieur, ou en lieux non climatisés, avec une plus forte incidence d'hypertension, de diabète et de maladies rénales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pathologies mineures</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur une échelle de 4 (niveaux de gravité selon l'INVS), ces pathologies sont de niveau 1 et 2.
+Les premiers signes d'exposition à la chaleur sont des sensations d'inconfort et de fatigue anormale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pathologies mineures</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dermite de chaleur</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une éruption cutanée rouge et très irritante. Cette dermite est faite de macules et de papules. Elle siège sur les parties couvertes par les habits, par phénomène de macération lié à la sueur. Elle est plus fréquente chez les enfants, et chez les adultes sportifs portant des tissus synthétiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pathologies mineures</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Œdème des extrémités</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chaleur provoque une vasodilatation périphérique, avec gêne au retour veineux. Cet œdème par chaleur siège aux extrémités des membres inférieurs. Il touche surtout les sujets ayant des troubles vasculaires (hypertension, diabète, insuffisance veineuse...), personnes âgées (plus souvent féminines), personnes sédentaires...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pathologies mineures</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Crampes de chaleur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des troubles de niveau 2. Il s'agit de spasmes musculaires douloureux accompagnés de transpiration intense. Ils sont favorisés par l'effort musculaire (compétition sportive, lutte contre l'incendie, travail de force...), et surviennent typiquement lors de l'arrêt de l'activité musculaire.
+Ces crampes touchent les muscles des membres ou les muscles abdominaux. Elles sont dues à une déshydratation avec déséquilibre en électrolytes (répartition des ions sodium, potassium, magnésium, calcium).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Syncope et épuisement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des troubles de gravité intermédiaire, 2 à 3.
 La syncope par chaleur survient à l'arrêt d'un effort physique intense en environnement chaud. Elle réalise une hypotension orthostatique. La perte de connaissance est brève et limitée, et les patients récupèrent en position allongée. Elle peut être précédée de troubles précurseurs (nausées, vertiges, troubles de la vision...).
 L'épuisement lié à la chaleur est plus grave. Il est provoqué par une perte excessive d'eau et de sels. Les troubles peuvent débuter comme pour la syncope, mais avec forte transpiration, maux de tête, comportement inhabituel, troubles du sommeil (agitation nocturne). La température corporelle peut augmenter au-delà de 38 °C mais sans atteindre 40 °C. Il n'y a pas de troubles neurologiques significatifs.
-Cet épuisement peut conduire au « coup de chaleur », particulièrement dangereux chez la personne âgée. Cette évolution peut être évitée par le repos complet en endroit sec et frais, refroidissement corporel actif (humidification et ventilation cutanée, éventuellement vessies de glace), et réhydratation orale (eau, jus de fruit, boissons pour sportif...)[10].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Cet épuisement peut conduire au « coup de chaleur », particulièrement dangereux chez la personne âgée. Cette évolution peut être évitée par le repos complet en endroit sec et frais, refroidissement corporel actif (humidification et ventilation cutanée, éventuellement vessies de glace), et réhydratation orale (eau, jus de fruit, boissons pour sportif...).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Coup de chaleur</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une urgence médicale qui peut mettre en jeu le pronostic vital. Elle réalise une hyperthermie. Le coup de chaleur se définit par une température corporelle au dessus de 40 °C, associée à des troubles de la conscience de profondeur variable (convulsions, délire, coma...). Au stade constitué, la peau est chaude et sèche, indiquant le fait que la régulation par sudation est dépassée.
-Ce coup de chaleur peut survenir très vite chez les nourrissons et les tout-petits (moins de 4 ans)[11].
-Le coup de chaleur dans sa « forme de repos » touche surtout les personnes âgées, invalides, ou médicamentées dont l'organisme a perdu des capacités d'adaptation. Dans sa « forme d'exercice », le coup de chaleur touche les sujets jeunes, engagés en exercice intense et prolongé, trop long dans un environnement trop chaud[10].
-Malgré un traitement rapide (refroidissement et rééquilibration en eau et en sels), 25 % des patients victimes d'un coup de chaleur évoluent vers une défaillance d'organe, lorsque la température corporelle continue de monter, pouvant dépasser les 42 °C[9]. Les atteintes concernent le système cardio-vasculaire, le système nerveux central, les muscles, le rein et le foie[10].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Ce coup de chaleur peut survenir très vite chez les nourrissons et les tout-petits (moins de 4 ans).
+Le coup de chaleur dans sa « forme de repos » touche surtout les personnes âgées, invalides, ou médicamentées dont l'organisme a perdu des capacités d'adaptation. Dans sa « forme d'exercice », le coup de chaleur touche les sujets jeunes, engagés en exercice intense et prolongé, trop long dans un environnement trop chaud.
+Malgré un traitement rapide (refroidissement et rééquilibration en eau et en sels), 25 % des patients victimes d'un coup de chaleur évoluent vers une défaillance d'organe, lorsque la température corporelle continue de monter, pouvant dépasser les 42 °C. Les atteintes concernent le système cardio-vasculaire, le système nerveux central, les muscles, le rein et le foie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pathologie_liée_à_la_chaleur</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pathologie_li%C3%A9e_%C3%A0_la_chaleur</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Travail et chaleur</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les crampes de chaleurs sont reconnues comme maladie professionnelle dans le cas de travaux effectués dans des mines de potasse, à une température égale ou supérieure à 28 °C[12].
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les crampes de chaleurs sont reconnues comme maladie professionnelle dans le cas de travaux effectués dans des mines de potasse, à une température égale ou supérieure à 28 °C.
 En France, comme dans les autres pays ou au niveau international, il n'existe pas de dispositions réglementaires précises concernant les conditions générales de travail en ambiance thermique chaude, mais plutôt des conseils ou des recommandations.
-En mai 2023, lors d'une conférence de l'Organisation internationale du travail au Qatar, des experts alertent sur les conséquences de la chaleur sur les salariés exposés : coups de chaleur, maladies rénales et cardio-pulmonaires. Ils déplorent qu'il n'existe pas encore de normes internationales sur ce sujet[13],[14]. Un milliard de travailleurs dans le monde seraient menacés par des chaleurs extrêmes liées au changement climatique[13].
-Ces travailleurs à risques sont[14] :
+En mai 2023, lors d'une conférence de l'Organisation internationale du travail au Qatar, des experts alertent sur les conséquences de la chaleur sur les salariés exposés : coups de chaleur, maladies rénales et cardio-pulmonaires. Ils déplorent qu'il n'existe pas encore de normes internationales sur ce sujet,. Un milliard de travailleurs dans le monde seraient menacés par des chaleurs extrêmes liées au changement climatique.
+Ces travailleurs à risques sont :
 Travail en extérieur (emploi physiquement exigeant) comme les travailleurs agricoles, ouvriers du bâtiment, ramassage des ordures…
 Travail en intérieur (usines et ateliers où la température n'est pas réglementée) comme les ouvriers du textile.
 Travail nécessitant des vêtements lourds ou des équipements de protection comme les répandeurs de pesticides, pompiers, métallurgistes…
 Travailleurs vulnérables : enfants qui travaillent, travailleuses enceintes, travailleurs âgés…
-En Europe, Chypre est le seul pays qui dispose de mesures réglementaires (pauses supplémentaires et vêtements de protection) lorsque la température de travail est supérieure à 35 °C[13].
+En Europe, Chypre est le seul pays qui dispose de mesures réglementaires (pauses supplémentaires et vêtements de protection) lorsque la température de travail est supérieure à 35 °C.
 </t>
         </is>
       </c>
